--- a/medicine/Psychotrope/Aberlour_(distillerie)/Aberlour_(distillerie).xlsx
+++ b/medicine/Psychotrope/Aberlour_(distillerie)/Aberlour_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aberlour est une distillerie de whisky single malt située à Charlestown of Aberlour en Écosse et fondée par James Fleming (1830-1895) en 1879.
@@ -515,9 +527,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que la marque existe depuis 1879, la distillerie a été fondée en 1826[1] par James Gordon et Peter Weir. La distillerie d'origine, qui a été détruite dans un incendie, a été reconstruite en 1879 par James Fleming (1830-1895) : c'est cette date qui est indiquée sur les bouteilles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la marque existe depuis 1879, la distillerie a été fondée en 1826 par James Gordon et Peter Weir. La distillerie d'origine, qui a été détruite dans un incendie, a été reconstruite en 1879 par James Fleming (1830-1895) : c'est cette date qui est indiquée sur les bouteilles.
 En 1882, la distillerie est vendue à R. Thorne &amp; Sons. En 1898, une explosion dans le moulin provoqua un deuxième incendie qui détruisit plusieurs bâtiments de la distillerie et la plupart des réservoirs de whisky. Le site fut reconstruit, sous la direction de Charles Chree Doig.
 Les restrictions de la Première Guerre mondiale entraînent l'arrêt de la production de 1917 à 1919. En 1920, le site est revendu à W. H. Holt &amp; Sons.
 De même, en 1942, la Seconde Guerre mondiale entraîne l'arrêt de la production de la distillerie qui est revendue à James Donald Stewart la même année. En 1945, le site est revendu à Campbell &amp; Sons Ltd
@@ -554,8 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Embouteillages officiels
-Aberlour 10 ans 43 %
+          <t>Embouteillages officiels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aberlour 10 ans 43 %
 Aberlour 12 ans Double Cask Matured 43 %
 Aberlour 12 ans Non Chill Filtered 46 %
 Aberlour 15 ans Select Cask Reserve 43 %
@@ -565,8 +584,43 @@
 Aberlour 1980 (30 ans) 51,1 %
 Certains de ces embouteillages sont réservés à certains marchés.
 Le blend Clan Campbell est composé d'au moins 30 % de malts Aberlour.
-Embouteillages indépendants
-Les versions d'Aberlour proposées par les embouteilleurs indépendants sont extrêmement rares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aberlour_(distillerie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aberlour_(distillerie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Embouteillages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Embouteillages indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les versions d'Aberlour proposées par les embouteilleurs indépendants sont extrêmement rares.
 Signatory Vintage :
 Aberlour 1990 55 %
 Duncan Taylor
@@ -574,7 +628,7 @@
 Berry Bros
 Aberlour 1994 46 %
 Jean BOYER
-En 2007, Jean Boyer a mis en bouteilles Aberlour 1998 43 %, Aberlour 1996 43 %, Aberlour 1989 43 %[2] et différents autres millésimes selon les années.</t>
+En 2007, Jean Boyer a mis en bouteilles Aberlour 1998 43 %, Aberlour 1996 43 %, Aberlour 1989 43 % et différents autres millésimes selon les années.</t>
         </is>
       </c>
     </row>
